--- a/Code/Results/Cases/Case_4_77/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_77/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.171895001473075</v>
+        <v>0.5733461505019761</v>
       </c>
       <c r="C2">
-        <v>0.1318011938188484</v>
+        <v>0.2100473317179308</v>
       </c>
       <c r="D2">
-        <v>0.195475571939582</v>
+        <v>0.07827614943023775</v>
       </c>
       <c r="E2">
-        <v>0.07827682905808686</v>
+        <v>0.1232850628349809</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.4770589065768576</v>
+        <v>0.7917072114167638</v>
       </c>
       <c r="H2">
-        <v>0.386821193722426</v>
+        <v>0.8755528824337517</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.951448955689159</v>
+        <v>0.3051687834335439</v>
       </c>
       <c r="L2">
-        <v>0.2476989937018459</v>
+        <v>0.1890576363323362</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.768475479875804</v>
+        <v>3.350518763409781</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.018242917153088</v>
+        <v>0.5296011967792538</v>
       </c>
       <c r="C3">
-        <v>0.1335051258216282</v>
+        <v>0.2107327780498629</v>
       </c>
       <c r="D3">
-        <v>0.1696456567826914</v>
+        <v>0.07104519052593616</v>
       </c>
       <c r="E3">
-        <v>0.07358214262071527</v>
+        <v>0.1228729911918407</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.4640469227137132</v>
+        <v>0.7944903458471941</v>
       </c>
       <c r="H3">
-        <v>0.3873477521723103</v>
+        <v>0.8810249826384862</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8312162891833452</v>
+        <v>0.2681359258690179</v>
       </c>
       <c r="L3">
-        <v>0.218109382463112</v>
+        <v>0.1818536565154858</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.741580980988687</v>
+        <v>3.367582627110309</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9241951752279647</v>
+        <v>0.5028873827448024</v>
       </c>
       <c r="C4">
-        <v>0.1346176090958657</v>
+        <v>0.2111882631674185</v>
       </c>
       <c r="D4">
-        <v>0.1539227099586071</v>
+        <v>0.06663876808228508</v>
       </c>
       <c r="E4">
-        <v>0.07081729889815236</v>
+        <v>0.1226842674476991</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.4571217544451542</v>
+        <v>0.7966896045556666</v>
       </c>
       <c r="H4">
-        <v>0.3883168849046896</v>
+        <v>0.8847546179221126</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7574165738416809</v>
+        <v>0.2453653395385516</v>
       </c>
       <c r="L4">
-        <v>0.2001532517038953</v>
+        <v>0.1775287838650002</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.72866518324976</v>
+        <v>3.379863279803402</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.885929089506476</v>
+        <v>0.4920386086767792</v>
       </c>
       <c r="C5">
-        <v>0.1350874984133661</v>
+        <v>0.2113826107472399</v>
       </c>
       <c r="D5">
-        <v>0.1475457740996404</v>
+        <v>0.06485153824132794</v>
       </c>
       <c r="E5">
-        <v>0.06971872615602948</v>
+        <v>0.1226235439022467</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.4545543790041648</v>
+        <v>0.7977090667291336</v>
       </c>
       <c r="H5">
-        <v>0.3888684986598889</v>
+        <v>0.8863675090351748</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7273384402168688</v>
+        <v>0.2360785455962571</v>
       </c>
       <c r="L5">
-        <v>0.1928844291814471</v>
+        <v>0.1757911784063708</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.724267137600137</v>
+        <v>3.385321188037793</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8795781811024597</v>
+        <v>0.4902394518948654</v>
       </c>
       <c r="C6">
-        <v>0.1351665190457787</v>
+        <v>0.2114154103526396</v>
       </c>
       <c r="D6">
-        <v>0.1464886025582786</v>
+        <v>0.06455527942486583</v>
       </c>
       <c r="E6">
-        <v>0.06953796573369786</v>
+        <v>0.1226144387033514</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.4541430845721948</v>
+        <v>0.797885789391799</v>
       </c>
       <c r="H6">
-        <v>0.3889693952714453</v>
+        <v>0.8866409491800766</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.722343454915034</v>
+        <v>0.2345360370924112</v>
       </c>
       <c r="L6">
-        <v>0.191680235229029</v>
+        <v>0.1755041512422224</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.723587988766099</v>
+        <v>3.3862548555052</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9236788853461064</v>
+        <v>0.5027409203800062</v>
       </c>
       <c r="C7">
-        <v>0.134623879354411</v>
+        <v>0.2111908488069112</v>
       </c>
       <c r="D7">
-        <v>0.1538365909796227</v>
+        <v>0.06661463074276242</v>
       </c>
       <c r="E7">
-        <v>0.07080237119127375</v>
+        <v>0.1226833829623644</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.4570861153324302</v>
+        <v>0.7967028544523203</v>
       </c>
       <c r="H7">
-        <v>0.3883236970972703</v>
+        <v>0.884775993165249</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7570109593215335</v>
+        <v>0.2452401246521134</v>
       </c>
       <c r="L7">
-        <v>0.2000550319150705</v>
+        <v>0.1775052493383953</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.728602416969778</v>
+        <v>3.379935051135391</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.118845076204224</v>
+        <v>0.558233023199989</v>
       </c>
       <c r="C8">
-        <v>0.132374882868298</v>
+        <v>0.2102765056888494</v>
       </c>
       <c r="D8">
-        <v>0.1865385111770763</v>
+        <v>0.07577598949460196</v>
       </c>
       <c r="E8">
-        <v>0.07663275818023507</v>
+        <v>0.1231296467372722</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.4723435117850698</v>
+        <v>0.7925650099018782</v>
       </c>
       <c r="H8">
-        <v>0.3868651831516559</v>
+        <v>0.8773629575639035</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.9099815320817584</v>
+        <v>0.292406848661301</v>
       </c>
       <c r="L8">
-        <v>0.2374494796643916</v>
+        <v>0.1865533215516137</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.758431276629693</v>
+        <v>3.356028071995212</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.504650953626225</v>
+        <v>0.6681858198502084</v>
       </c>
       <c r="C9">
-        <v>0.1284961019248705</v>
+        <v>0.2087569117783694</v>
       </c>
       <c r="D9">
-        <v>0.2519488410714672</v>
+        <v>0.09400657429024761</v>
       </c>
       <c r="E9">
-        <v>0.08907083499339308</v>
+        <v>0.1245143477306669</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.5113242100088797</v>
+        <v>0.7883457388871733</v>
       </c>
       <c r="H9">
-        <v>0.3894018378384061</v>
+        <v>0.8657573824229985</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.210643602312217</v>
+        <v>0.3846264504548458</v>
       </c>
       <c r="L9">
-        <v>0.3126974179133271</v>
+        <v>0.2050752839892738</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.847349144094409</v>
+        <v>3.323459104281284</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.791109531941345</v>
+        <v>0.7496355313140839</v>
       </c>
       <c r="C10">
-        <v>0.1259789091404357</v>
+        <v>0.2078054861429735</v>
       </c>
       <c r="D10">
-        <v>0.3010808929587654</v>
+        <v>0.1075637239625706</v>
       </c>
       <c r="E10">
-        <v>0.09892628513544466</v>
+        <v>0.1258419221257938</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.5463978088071713</v>
+        <v>0.7876268716395174</v>
       </c>
       <c r="H10">
-        <v>0.3949578089785035</v>
+        <v>0.8590149352135938</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.432721549659249</v>
+        <v>0.4521952063437311</v>
       </c>
       <c r="L10">
-        <v>0.3695027677964617</v>
+        <v>0.2191570007111352</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.933998186734243</v>
+        <v>3.308264251711336</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.922350228354276</v>
+        <v>0.7868296355417783</v>
       </c>
       <c r="C11">
-        <v>0.124908054229337</v>
+        <v>0.20740814273789</v>
       </c>
       <c r="D11">
-        <v>0.3237354447856973</v>
+        <v>0.113767035520965</v>
       </c>
       <c r="E11">
-        <v>0.1035903469717709</v>
+        <v>0.1265131644392135</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.5639675475548245</v>
+        <v>0.7878183277623663</v>
       </c>
       <c r="H11">
-        <v>0.3983829350752757</v>
+        <v>0.8563344649770954</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.534190972487636</v>
+        <v>0.4828904665495202</v>
       </c>
       <c r="L11">
-        <v>0.3957590452864395</v>
+        <v>0.2256658490468908</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.978706998265153</v>
+        <v>3.303250144203304</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.972205020373025</v>
+        <v>0.8009339695782671</v>
       </c>
       <c r="C12">
-        <v>0.12451341502193</v>
+        <v>0.2072627513670682</v>
       </c>
       <c r="D12">
-        <v>0.332363998020881</v>
+        <v>0.116121256606263</v>
       </c>
       <c r="E12">
-        <v>0.1053847016023077</v>
+        <v>0.1267770152617658</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.5708723357762295</v>
+        <v>0.7879654818219137</v>
       </c>
       <c r="H12">
-        <v>0.3998176377950671</v>
+        <v>0.8553749999428391</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.572694921972129</v>
+        <v>0.494507478693464</v>
       </c>
       <c r="L12">
-        <v>0.4057687340170446</v>
+        <v>0.2281453436231544</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.996457207334259</v>
+        <v>3.301624493867649</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.961460538290908</v>
+        <v>0.7978954826116933</v>
       </c>
       <c r="C13">
-        <v>0.1245979208989993</v>
+        <v>0.2072938387422454</v>
       </c>
       <c r="D13">
-        <v>0.3305033708387839</v>
+        <v>0.1156140038771554</v>
       </c>
       <c r="E13">
-        <v>0.1049969657659346</v>
+        <v>0.1267197606101824</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5693737574350735</v>
+        <v>0.7879304677638999</v>
       </c>
       <c r="H13">
-        <v>0.3995023819352355</v>
+        <v>0.8555791669543851</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.56439860102131</v>
+        <v>0.4920058504776534</v>
       </c>
       <c r="L13">
-        <v>0.4036098665565788</v>
+        <v>0.2276106859898306</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.992596929605668</v>
+        <v>3.301962459120233</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.926448530976757</v>
+        <v>0.7879896161953752</v>
       </c>
       <c r="C14">
-        <v>0.1248753679922103</v>
+        <v>0.2073960797596328</v>
       </c>
       <c r="D14">
-        <v>0.3244442876371352</v>
+        <v>0.113960615427942</v>
       </c>
       <c r="E14">
-        <v>0.1037373918961002</v>
+        <v>0.1265346779713852</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.5645304523350347</v>
+        <v>0.7878289374841785</v>
       </c>
       <c r="H14">
-        <v>0.3984981581361779</v>
+        <v>0.8562544156970944</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.537357024523288</v>
+        <v>0.4838463409499241</v>
       </c>
       <c r="L14">
-        <v>0.3965811618458019</v>
+        <v>0.2258695436891287</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.980150532491308</v>
+        <v>3.303110927190914</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.905023800957281</v>
+        <v>0.7819245356797353</v>
       </c>
       <c r="C15">
-        <v>0.1250467340508408</v>
+        <v>0.2074593653524133</v>
       </c>
       <c r="D15">
-        <v>0.3207395913213844</v>
+        <v>0.1129485385855276</v>
       </c>
       <c r="E15">
-        <v>0.1029696031241336</v>
+        <v>0.126422567855613</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.5615971394482955</v>
+        <v>0.7877764722758229</v>
       </c>
       <c r="H15">
-        <v>0.397901237972988</v>
+        <v>0.8566752609364698</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.520804140944819</v>
+        <v>0.4788475274303892</v>
       </c>
       <c r="L15">
-        <v>0.3922848288723912</v>
+        <v>0.2248049603937545</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.972635360278105</v>
+        <v>3.303849964622316</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.782553283928593</v>
+        <v>0.7472076096310616</v>
       </c>
       <c r="C16">
-        <v>0.1260504021600894</v>
+        <v>0.2078321648947536</v>
       </c>
       <c r="D16">
-        <v>0.2996069910089858</v>
+        <v>0.1071590468524874</v>
       </c>
       <c r="E16">
-        <v>0.09862529835329426</v>
+        <v>0.1257994082825817</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.5452836963621905</v>
+        <v>0.7876248009293221</v>
       </c>
       <c r="H16">
-        <v>0.3947527535545277</v>
+        <v>0.8591978885694402</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.426100553397475</v>
+        <v>0.4501883035358389</v>
       </c>
       <c r="L16">
-        <v>0.3677958258920881</v>
+        <v>0.2187336983104018</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.931187793211762</v>
+        <v>3.308630142020036</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.707675540095124</v>
+        <v>0.7259458153799869</v>
       </c>
       <c r="C17">
-        <v>0.126685267055997</v>
+        <v>0.2080699302411801</v>
       </c>
       <c r="D17">
-        <v>0.2867248855560831</v>
+        <v>0.1036166059284795</v>
       </c>
       <c r="E17">
-        <v>0.09600801312717167</v>
+        <v>0.125434352295688</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.535702792596183</v>
+        <v>0.7876646187995817</v>
       </c>
       <c r="H17">
-        <v>0.3930571047153393</v>
+        <v>0.8608444567234557</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.368127745361619</v>
+        <v>0.4325956130952306</v>
       </c>
       <c r="L17">
-        <v>0.3528839983646463</v>
+        <v>0.2150355029821469</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.907157076714356</v>
+        <v>3.312048875425148</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.66469382216755</v>
+        <v>0.7137300230383801</v>
       </c>
       <c r="C18">
-        <v>0.1270573987251851</v>
+        <v>0.2082100262274409</v>
       </c>
       <c r="D18">
-        <v>0.279343681118263</v>
+        <v>0.1015824869273132</v>
       </c>
       <c r="E18">
-        <v>0.09451949553263006</v>
+        <v>0.1252307193175781</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.5303428465057749</v>
+        <v>0.7877363162609754</v>
       </c>
       <c r="H18">
-        <v>0.3921657571763717</v>
+        <v>0.8618279196390262</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.33482420171984</v>
+        <v>0.4224728331202527</v>
       </c>
       <c r="L18">
-        <v>0.3443457273176449</v>
+        <v>0.2129180987639785</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.893829554272941</v>
+        <v>3.314193891131424</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.650155039991688</v>
+        <v>0.7095962940435641</v>
       </c>
       <c r="C19">
-        <v>0.1271845881820042</v>
+        <v>0.2082580347000942</v>
       </c>
       <c r="D19">
-        <v>0.2768492055234049</v>
+        <v>0.1008943538909506</v>
       </c>
       <c r="E19">
-        <v>0.09401834338258297</v>
+        <v>0.1251628616260305</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.5285533828828335</v>
+        <v>0.7877689694227001</v>
       </c>
       <c r="H19">
-        <v>0.3918781277986767</v>
+        <v>0.8621671562171258</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.323554757029342</v>
+        <v>0.4190447759769711</v>
       </c>
       <c r="L19">
-        <v>0.3414612341305201</v>
+        <v>0.2122028503885929</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.88940025184462</v>
+        <v>3.31495083579938</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.715637342799965</v>
+        <v>0.7282077849907864</v>
       </c>
       <c r="C20">
-        <v>0.1266169614262012</v>
+        <v>0.2080442742629245</v>
       </c>
       <c r="D20">
-        <v>0.2880932423510956</v>
+        <v>0.1039933532028812</v>
       </c>
       <c r="E20">
-        <v>0.09628486571128647</v>
+        <v>0.1254725573217641</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.5367069598001422</v>
+        <v>0.7876553292764754</v>
       </c>
       <c r="H20">
-        <v>0.3932288611401589</v>
+        <v>0.8606654096849127</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.374294708764751</v>
+        <v>0.4344687958173097</v>
       </c>
       <c r="L20">
-        <v>0.3544673398643567</v>
+        <v>0.2154281788403267</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.909663614117306</v>
+        <v>3.311666454734194</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.936727957828595</v>
+        <v>0.790898679415875</v>
       </c>
       <c r="C21">
-        <v>0.1247935784036827</v>
+        <v>0.2073659115928308</v>
       </c>
       <c r="D21">
-        <v>0.326222586475609</v>
+        <v>0.1144461158436343</v>
       </c>
       <c r="E21">
-        <v>0.1041065764655471</v>
+        <v>0.1265887790177622</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.5659460615877379</v>
+        <v>0.7878567325296899</v>
       </c>
       <c r="H21">
-        <v>0.3987893147766641</v>
+        <v>0.8560545708853056</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.545297497528225</v>
+        <v>0.4862431707310861</v>
       </c>
       <c r="L21">
-        <v>0.3986437835263672</v>
+        <v>0.2263805601012763</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.983783596439196</v>
+        <v>3.302766181784847</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.082149355715103</v>
+        <v>0.8319854962162481</v>
       </c>
       <c r="C22">
-        <v>0.1236653540260022</v>
+        <v>0.206952125498816</v>
       </c>
       <c r="D22">
-        <v>0.3514354954452585</v>
+        <v>0.1213076724203006</v>
       </c>
       <c r="E22">
-        <v>0.1093838680631123</v>
+        <v>0.1273746278396537</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.5865314834583586</v>
+        <v>0.7884235453793735</v>
       </c>
       <c r="H22">
-        <v>0.4032303525109597</v>
+        <v>0.8533650139649751</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.657530309122961</v>
+        <v>0.5200418911666702</v>
       </c>
       <c r="L22">
-        <v>0.4279099760755543</v>
+        <v>0.2336244251321205</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.037035094452222</v>
+        <v>3.298541140501413</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.004442387752931</v>
+        <v>0.8100464309030713</v>
       </c>
       <c r="C23">
-        <v>0.1242616332601116</v>
+        <v>0.207170274350581</v>
       </c>
       <c r="D23">
-        <v>0.3379499627452844</v>
+        <v>0.1176427887219944</v>
       </c>
       <c r="E23">
-        <v>0.1065513880843412</v>
+        <v>0.1269500559766072</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.5754028491550258</v>
+        <v>0.7880811751652033</v>
       </c>
       <c r="H23">
-        <v>0.4007832456015876</v>
+        <v>0.8547708569090702</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.597580801214292</v>
+        <v>0.5020066157156577</v>
       </c>
       <c r="L23">
-        <v>0.4122514279068099</v>
+        <v>0.2297504082053621</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.008153050822898</v>
+        <v>3.300650429484392</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.712037606412309</v>
+        <v>0.727185123880389</v>
       </c>
       <c r="C24">
-        <v>0.126647820178249</v>
+        <v>0.2080558627324152</v>
       </c>
       <c r="D24">
-        <v>0.2874745311696785</v>
+        <v>0.1038230180422062</v>
       </c>
       <c r="E24">
-        <v>0.09615965037875895</v>
+        <v>0.1254552653837315</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.5362525155086786</v>
+        <v>0.7876593770499483</v>
       </c>
       <c r="H24">
-        <v>0.3931509506080886</v>
+        <v>0.8607462421266803</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.371506545432823</v>
+        <v>0.4336219563686541</v>
       </c>
       <c r="L24">
-        <v>0.353751403519027</v>
+        <v>0.215250622864076</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.908528892782186</v>
+        <v>3.311838787876809</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.399838261416306</v>
+        <v>0.6383218006850768</v>
       </c>
       <c r="C25">
-        <v>0.1294876760083241</v>
+        <v>0.2091389036199018</v>
       </c>
       <c r="D25">
-        <v>0.2340871438520082</v>
+        <v>0.08904617297412187</v>
       </c>
       <c r="E25">
-        <v>0.08558802322260561</v>
+        <v>0.1240852383855753</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.4997183634909703</v>
+        <v>0.789069497140801</v>
       </c>
       <c r="H25">
-        <v>0.3880978917643461</v>
+        <v>0.8685834730420225</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.129157469051393</v>
+        <v>0.359709811758421</v>
       </c>
       <c r="L25">
-        <v>0.2921006195197435</v>
+        <v>0.1999813476374754</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.819761837230146</v>
+        <v>3.330736758954458</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_77/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_77/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5733461505019761</v>
+        <v>1.171895001473217</v>
       </c>
       <c r="C2">
-        <v>0.2100473317179308</v>
+        <v>0.131801193818518</v>
       </c>
       <c r="D2">
-        <v>0.07827614943023775</v>
+        <v>0.1954755719394825</v>
       </c>
       <c r="E2">
-        <v>0.1232850628349809</v>
+        <v>0.07827682905809397</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.7917072114167638</v>
+        <v>0.4770589065768718</v>
       </c>
       <c r="H2">
-        <v>0.8755528824337517</v>
+        <v>0.386821193722426</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3051687834335439</v>
+        <v>0.95144895568896</v>
       </c>
       <c r="L2">
-        <v>0.1890576363323362</v>
+        <v>0.2476989937019169</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.350518763409781</v>
+        <v>1.76847547987569</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5296011967792538</v>
+        <v>1.018242917153202</v>
       </c>
       <c r="C3">
-        <v>0.2107327780498629</v>
+        <v>0.1335051258218485</v>
       </c>
       <c r="D3">
-        <v>0.07104519052593616</v>
+        <v>0.1696456567825209</v>
       </c>
       <c r="E3">
-        <v>0.1228729911918407</v>
+        <v>0.0735821426206833</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.7944903458471941</v>
+        <v>0.4640469227137132</v>
       </c>
       <c r="H3">
-        <v>0.8810249826384862</v>
+        <v>0.3873477521724382</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2681359258690179</v>
+        <v>0.8312162891832884</v>
       </c>
       <c r="L3">
-        <v>0.1818536565154858</v>
+        <v>0.2181093824630409</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.367582627110309</v>
+        <v>1.741580980988715</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5028873827448024</v>
+        <v>0.9241951752278226</v>
       </c>
       <c r="C4">
-        <v>0.2111882631674185</v>
+        <v>0.1346176090957876</v>
       </c>
       <c r="D4">
-        <v>0.06663876808228508</v>
+        <v>0.1539227099584366</v>
       </c>
       <c r="E4">
-        <v>0.1226842674476991</v>
+        <v>0.07081729889814881</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.7966896045556666</v>
+        <v>0.4571217544452324</v>
       </c>
       <c r="H4">
-        <v>0.8847546179221126</v>
+        <v>0.3883168849048175</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2453653395385516</v>
+        <v>0.7574165738416809</v>
       </c>
       <c r="L4">
-        <v>0.1775287838650002</v>
+        <v>0.2001532517039095</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.379863279803402</v>
+        <v>1.728665183249802</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4920386086767792</v>
+        <v>0.8859290895064191</v>
       </c>
       <c r="C5">
-        <v>0.2113826107472399</v>
+        <v>0.135087498413295</v>
       </c>
       <c r="D5">
-        <v>0.06485153824132794</v>
+        <v>0.1475457740995125</v>
       </c>
       <c r="E5">
-        <v>0.1226235439022467</v>
+        <v>0.06971872615605079</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.7977090667291336</v>
+        <v>0.4545543790042004</v>
       </c>
       <c r="H5">
-        <v>0.8863675090351748</v>
+        <v>0.3888684986598818</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2360785455962571</v>
+        <v>0.7273384402169398</v>
       </c>
       <c r="L5">
-        <v>0.1757911784063708</v>
+        <v>0.1928844291814755</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.385321188037793</v>
+        <v>1.724267137600194</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4902394518948654</v>
+        <v>0.8795781811024597</v>
       </c>
       <c r="C6">
-        <v>0.2114154103526396</v>
+        <v>0.1351665190455229</v>
       </c>
       <c r="D6">
-        <v>0.06455527942486583</v>
+        <v>0.1464886025583922</v>
       </c>
       <c r="E6">
-        <v>0.1226144387033514</v>
+        <v>0.06953796573369431</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.797885789391799</v>
+        <v>0.4541430845721308</v>
       </c>
       <c r="H6">
-        <v>0.8866409491800766</v>
+        <v>0.3889693952714453</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2345360370924112</v>
+        <v>0.7223434549150483</v>
       </c>
       <c r="L6">
-        <v>0.1755041512422224</v>
+        <v>0.1916802352290432</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.3862548555052</v>
+        <v>1.72358798876617</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5027409203800062</v>
+        <v>0.9236788853459643</v>
       </c>
       <c r="C7">
-        <v>0.2111908488069112</v>
+        <v>0.1346238793543506</v>
       </c>
       <c r="D7">
-        <v>0.06661463074276242</v>
+        <v>0.1538365909796511</v>
       </c>
       <c r="E7">
-        <v>0.1226833829623644</v>
+        <v>0.07080237119128796</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.7967028544523203</v>
+        <v>0.457086115332423</v>
       </c>
       <c r="H7">
-        <v>0.884775993165249</v>
+        <v>0.3883236970972703</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2452401246521134</v>
+        <v>0.7570109593214056</v>
       </c>
       <c r="L7">
-        <v>0.1775052493383953</v>
+        <v>0.2000550319151273</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.379935051135391</v>
+        <v>1.728602416969764</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.558233023199989</v>
+        <v>1.118845076204195</v>
       </c>
       <c r="C8">
-        <v>0.2102765056888494</v>
+        <v>0.1323748828682092</v>
       </c>
       <c r="D8">
-        <v>0.07577598949460196</v>
+        <v>0.1865385111771189</v>
       </c>
       <c r="E8">
-        <v>0.1231296467372722</v>
+        <v>0.07663275818021731</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.7925650099018782</v>
+        <v>0.4723435117851267</v>
       </c>
       <c r="H8">
-        <v>0.8773629575639035</v>
+        <v>0.3868651831516416</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.292406848661301</v>
+        <v>0.9099815320817868</v>
       </c>
       <c r="L8">
-        <v>0.1865533215516137</v>
+        <v>0.2374494796643631</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.356028071995212</v>
+        <v>1.758431276629608</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6681858198502084</v>
+        <v>1.504650953626225</v>
       </c>
       <c r="C9">
-        <v>0.2087569117783694</v>
+        <v>0.128496101925009</v>
       </c>
       <c r="D9">
-        <v>0.09400657429024761</v>
+        <v>0.2519488410716377</v>
       </c>
       <c r="E9">
-        <v>0.1245143477306669</v>
+        <v>0.08907083499337176</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.7883457388871733</v>
+        <v>0.5113242100088371</v>
       </c>
       <c r="H9">
-        <v>0.8657573824229985</v>
+        <v>0.3894018378384203</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3846264504548458</v>
+        <v>1.21064360231216</v>
       </c>
       <c r="L9">
-        <v>0.2050752839892738</v>
+        <v>0.3126974179133697</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.323459104281284</v>
+        <v>1.847349144094352</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7496355313140839</v>
+        <v>1.791109531941544</v>
       </c>
       <c r="C10">
-        <v>0.2078054861429735</v>
+        <v>0.1259789091407768</v>
       </c>
       <c r="D10">
-        <v>0.1075637239625706</v>
+        <v>0.3010808929587085</v>
       </c>
       <c r="E10">
-        <v>0.1258419221257938</v>
+        <v>0.09892628513544466</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.7876268716395174</v>
+        <v>0.5463978088071144</v>
       </c>
       <c r="H10">
-        <v>0.8590149352135938</v>
+        <v>0.3949578089785035</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4521952063437311</v>
+        <v>1.432721549659163</v>
       </c>
       <c r="L10">
-        <v>0.2191570007111352</v>
+        <v>0.3695027677966038</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.308264251711336</v>
+        <v>1.933998186734215</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7868296355417783</v>
+        <v>1.922350228354276</v>
       </c>
       <c r="C11">
-        <v>0.20740814273789</v>
+        <v>0.1249080542294436</v>
       </c>
       <c r="D11">
-        <v>0.113767035520965</v>
+        <v>0.3237354447857541</v>
       </c>
       <c r="E11">
-        <v>0.1265131644392135</v>
+        <v>0.103590346971778</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.7878183277623663</v>
+        <v>0.5639675475548245</v>
       </c>
       <c r="H11">
-        <v>0.8563344649770954</v>
+        <v>0.3983829350754036</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4828904665495202</v>
+        <v>1.534190972487636</v>
       </c>
       <c r="L11">
-        <v>0.2256658490468908</v>
+        <v>0.3957590452864679</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.303250144203304</v>
+        <v>1.978706998265125</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8009339695782671</v>
+        <v>1.972205020373025</v>
       </c>
       <c r="C12">
-        <v>0.2072627513670682</v>
+        <v>0.1245134150216884</v>
       </c>
       <c r="D12">
-        <v>0.116121256606263</v>
+        <v>0.3323639980208668</v>
       </c>
       <c r="E12">
-        <v>0.1267770152617658</v>
+        <v>0.1053847016023433</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7879654818219137</v>
+        <v>0.570872335776258</v>
       </c>
       <c r="H12">
-        <v>0.8553749999428391</v>
+        <v>0.3998176377950671</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.494507478693464</v>
+        <v>1.572694921972214</v>
       </c>
       <c r="L12">
-        <v>0.2281453436231544</v>
+        <v>0.4057687340170162</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.301624493867649</v>
+        <v>1.996457207334231</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7978954826116933</v>
+        <v>1.961460538290879</v>
       </c>
       <c r="C13">
-        <v>0.2072938387422454</v>
+        <v>0.1245979208991272</v>
       </c>
       <c r="D13">
-        <v>0.1156140038771554</v>
+        <v>0.3305033708388692</v>
       </c>
       <c r="E13">
-        <v>0.1267197606101824</v>
+        <v>0.1049969657659346</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7879304677638999</v>
+        <v>0.5693737574351303</v>
       </c>
       <c r="H13">
-        <v>0.8555791669543851</v>
+        <v>0.3995023819352497</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4920058504776534</v>
+        <v>1.56439860102131</v>
       </c>
       <c r="L13">
-        <v>0.2276106859898306</v>
+        <v>0.403609866556522</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.301962459120233</v>
+        <v>1.992596929605668</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7879896161953752</v>
+        <v>1.926448530976728</v>
       </c>
       <c r="C14">
-        <v>0.2073960797596328</v>
+        <v>0.1248753679918693</v>
       </c>
       <c r="D14">
-        <v>0.113960615427942</v>
+        <v>0.3244442876370783</v>
       </c>
       <c r="E14">
-        <v>0.1265346779713852</v>
+        <v>0.1037373918961357</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.7878289374841785</v>
+        <v>0.5645304523349921</v>
       </c>
       <c r="H14">
-        <v>0.8562544156970944</v>
+        <v>0.3984981581360785</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4838463409499241</v>
+        <v>1.537357024523288</v>
       </c>
       <c r="L14">
-        <v>0.2258695436891287</v>
+        <v>0.3965811618456598</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.303110927190914</v>
+        <v>1.980150532491336</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7819245356797353</v>
+        <v>1.905023800957395</v>
       </c>
       <c r="C15">
-        <v>0.2074593653524133</v>
+        <v>0.1250467340510752</v>
       </c>
       <c r="D15">
-        <v>0.1129485385855276</v>
+        <v>0.320739591321356</v>
       </c>
       <c r="E15">
-        <v>0.126422567855613</v>
+        <v>0.102969603124162</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.7877764722758229</v>
+        <v>0.5615971394483239</v>
       </c>
       <c r="H15">
-        <v>0.8566752609364698</v>
+        <v>0.3979012379729738</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4788475274303892</v>
+        <v>1.520804140944847</v>
       </c>
       <c r="L15">
-        <v>0.2248049603937545</v>
+        <v>0.3922848288724339</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.303849964622316</v>
+        <v>1.972635360278133</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7472076096310616</v>
+        <v>1.78255328392865</v>
       </c>
       <c r="C16">
-        <v>0.2078321648947536</v>
+        <v>0.1260504021599615</v>
       </c>
       <c r="D16">
-        <v>0.1071590468524874</v>
+        <v>0.2996069910086874</v>
       </c>
       <c r="E16">
-        <v>0.1257994082825817</v>
+        <v>0.0986252983532836</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.7876248009293221</v>
+        <v>0.545283696362219</v>
       </c>
       <c r="H16">
-        <v>0.8591978885694402</v>
+        <v>0.3947527535545419</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4501883035358389</v>
+        <v>1.426100553397617</v>
       </c>
       <c r="L16">
-        <v>0.2187336983104018</v>
+        <v>0.3677958258921166</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.308630142020036</v>
+        <v>1.931187793211848</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7259458153799869</v>
+        <v>1.707675540095124</v>
       </c>
       <c r="C17">
-        <v>0.2080699302411801</v>
+        <v>0.1266852670556631</v>
       </c>
       <c r="D17">
-        <v>0.1036166059284795</v>
+        <v>0.2867248855560831</v>
       </c>
       <c r="E17">
-        <v>0.125434352295688</v>
+        <v>0.09600801312717167</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.7876646187995817</v>
+        <v>0.5357027925961972</v>
       </c>
       <c r="H17">
-        <v>0.8608444567234557</v>
+        <v>0.3930571047153393</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4325956130952306</v>
+        <v>1.368127745361704</v>
       </c>
       <c r="L17">
-        <v>0.2150355029821469</v>
+        <v>0.3528839983646321</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.312048875425148</v>
+        <v>1.907157076714384</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7137300230383801</v>
+        <v>1.664693822167379</v>
       </c>
       <c r="C18">
-        <v>0.2082100262274409</v>
+        <v>0.1270573987252845</v>
       </c>
       <c r="D18">
-        <v>0.1015824869273132</v>
+        <v>0.2793436811182488</v>
       </c>
       <c r="E18">
-        <v>0.1252307193175781</v>
+        <v>0.09451949553263717</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.7877363162609754</v>
+        <v>0.5303428465057323</v>
       </c>
       <c r="H18">
-        <v>0.8618279196390262</v>
+        <v>0.3921657571763717</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4224728331202527</v>
+        <v>1.334824201719755</v>
       </c>
       <c r="L18">
-        <v>0.2129180987639785</v>
+        <v>0.3443457273176165</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.314193891131424</v>
+        <v>1.893829554272855</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7095962940435641</v>
+        <v>1.650155039991716</v>
       </c>
       <c r="C19">
-        <v>0.2082580347000942</v>
+        <v>0.1271845881823381</v>
       </c>
       <c r="D19">
-        <v>0.1008943538909506</v>
+        <v>0.2768492055232912</v>
       </c>
       <c r="E19">
-        <v>0.1251628616260305</v>
+        <v>0.09401834338258297</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.7877689694227001</v>
+        <v>0.5285533828829188</v>
       </c>
       <c r="H19">
-        <v>0.8621671562171258</v>
+        <v>0.3918781277985488</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4190447759769711</v>
+        <v>1.323554757029342</v>
       </c>
       <c r="L19">
-        <v>0.2122028503885929</v>
+        <v>0.341461234130648</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.31495083579938</v>
+        <v>1.889400251844563</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7282077849907864</v>
+        <v>1.715637342800164</v>
       </c>
       <c r="C20">
-        <v>0.2080442742629245</v>
+        <v>0.1266169614261869</v>
       </c>
       <c r="D20">
-        <v>0.1039933532028812</v>
+        <v>0.2880932423511382</v>
       </c>
       <c r="E20">
-        <v>0.1254725573217641</v>
+        <v>0.09628486571124384</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.7876553292764754</v>
+        <v>0.5367069598000995</v>
       </c>
       <c r="H20">
-        <v>0.8606654096849127</v>
+        <v>0.3932288611401589</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4344687958173097</v>
+        <v>1.374294708764751</v>
       </c>
       <c r="L20">
-        <v>0.2154281788403267</v>
+        <v>0.3544673398643283</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.311666454734194</v>
+        <v>1.909663614117278</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.790898679415875</v>
+        <v>1.936727957828651</v>
       </c>
       <c r="C21">
-        <v>0.2073659115928308</v>
+        <v>0.1247935784035477</v>
       </c>
       <c r="D21">
-        <v>0.1144461158436343</v>
+        <v>0.32622258647568</v>
       </c>
       <c r="E21">
-        <v>0.1265887790177622</v>
+        <v>0.1041065764655329</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.7878567325296899</v>
+        <v>0.5659460615877947</v>
       </c>
       <c r="H21">
-        <v>0.8560545708853056</v>
+        <v>0.3987893147766641</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4862431707310861</v>
+        <v>1.545297497528395</v>
       </c>
       <c r="L21">
-        <v>0.2263805601012763</v>
+        <v>0.3986437835263672</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.302766181784847</v>
+        <v>1.983783596439224</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8319854962162481</v>
+        <v>2.082149355715217</v>
       </c>
       <c r="C22">
-        <v>0.206952125498816</v>
+        <v>0.1236653540263504</v>
       </c>
       <c r="D22">
-        <v>0.1213076724203006</v>
+        <v>0.3514354954451875</v>
       </c>
       <c r="E22">
-        <v>0.1273746278396537</v>
+        <v>0.1093838680631229</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.7884235453793735</v>
+        <v>0.5865314834583018</v>
       </c>
       <c r="H22">
-        <v>0.8533650139649751</v>
+        <v>0.4032303525109597</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5200418911666702</v>
+        <v>1.657530309122961</v>
       </c>
       <c r="L22">
-        <v>0.2336244251321205</v>
+        <v>0.42790997607554</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.298541140501413</v>
+        <v>2.037035094452193</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8100464309030713</v>
+        <v>2.004442387752931</v>
       </c>
       <c r="C23">
-        <v>0.207170274350581</v>
+        <v>0.1242616332604456</v>
       </c>
       <c r="D23">
-        <v>0.1176427887219944</v>
+        <v>0.3379499627452134</v>
       </c>
       <c r="E23">
-        <v>0.1269500559766072</v>
+        <v>0.1065513880843092</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.7880811751652033</v>
+        <v>0.5754028491550258</v>
       </c>
       <c r="H23">
-        <v>0.8547708569090702</v>
+        <v>0.4007832456016871</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5020066157156577</v>
+        <v>1.597580801214434</v>
       </c>
       <c r="L23">
-        <v>0.2297504082053621</v>
+        <v>0.4122514279068099</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.300650429484392</v>
+        <v>2.008153050822898</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.727185123880389</v>
+        <v>1.712037606412338</v>
       </c>
       <c r="C24">
-        <v>0.2080558627324152</v>
+        <v>0.1266478201783912</v>
       </c>
       <c r="D24">
-        <v>0.1038230180422062</v>
+        <v>0.2874745311696643</v>
       </c>
       <c r="E24">
-        <v>0.1254552653837315</v>
+        <v>0.09615965037877316</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.7876593770499483</v>
+        <v>0.5362525155086786</v>
       </c>
       <c r="H24">
-        <v>0.8607462421266803</v>
+        <v>0.3931509506082165</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4336219563686541</v>
+        <v>1.371506545432823</v>
       </c>
       <c r="L24">
-        <v>0.215250622864076</v>
+        <v>0.3537514035189417</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.311838787876809</v>
+        <v>1.908528892782186</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6383218006850768</v>
+        <v>1.39983826141642</v>
       </c>
       <c r="C25">
-        <v>0.2091389036199018</v>
+        <v>0.1294876760085479</v>
       </c>
       <c r="D25">
-        <v>0.08904617297412187</v>
+        <v>0.234087143851923</v>
       </c>
       <c r="E25">
-        <v>0.1240852383855753</v>
+        <v>0.08558802322260561</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.789069497140801</v>
+        <v>0.4997183634908993</v>
       </c>
       <c r="H25">
-        <v>0.8685834730420225</v>
+        <v>0.3880978917643461</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.359709811758421</v>
+        <v>1.129157469051393</v>
       </c>
       <c r="L25">
-        <v>0.1999813476374754</v>
+        <v>0.2921006195198288</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.330736758954458</v>
+        <v>1.819761837230146</v>
       </c>
     </row>
   </sheetData>
